--- a/webroot/templates/schedule_upload.xlsx
+++ b/webroot/templates/schedule_upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepaksingh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27045E4C-B35B-5349-B5C9-D2961BA43358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0A10FB-304C-3145-9E15-C29F9F275D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>ODWPOT6263</t>
-  </si>
-  <si>
     <t>Vendor</t>
   </si>
   <si>
@@ -48,26 +45,20 @@
     <t>delivery_date</t>
   </si>
   <si>
-    <t>14/12/2023</t>
-  </si>
-  <si>
-    <t>15/12/2023</t>
-  </si>
-  <si>
-    <t>16/12/2023</t>
-  </si>
-  <si>
-    <t>18/12/2023</t>
-  </si>
-  <si>
-    <t>TDWPOT6263</t>
+    <t>ORBN020100</t>
+  </si>
+  <si>
+    <t>ORBN022000</t>
+  </si>
+  <si>
+    <t>07-12-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,7 +67,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -102,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,116 +420,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>987890</v>
-      </c>
-      <c r="B2">
-        <v>12344</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="2">
+        <v>21956</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4000031820</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
         <v>300</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>987890</v>
-      </c>
-      <c r="B3">
-        <v>12344</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="2">
+        <v>21956</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4000031820</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
         <v>200</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>45555</v>
-      </c>
-      <c r="B4">
-        <v>22222</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>45555</v>
-      </c>
-      <c r="B5">
-        <v>22222</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
